--- a/Data/Raw Data/Observations Data.xlsx
+++ b/Data/Raw Data/Observations Data.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\foundation-pollination\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\foundation-pollination\Data\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Covariates" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Visits" sheetId="2" r:id="rId3"/>
-    <sheet name="etc" sheetId="4" r:id="rId4"/>
-    <sheet name="Specimens" sheetId="3" r:id="rId5"/>
+    <sheet name="Visits" sheetId="2" r:id="rId2"/>
+    <sheet name="etc" sheetId="4" r:id="rId3"/>
+    <sheet name="Specimens" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5210" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="422">
   <si>
     <t>Waypoint</t>
   </si>
@@ -1213,33 +1212,6 @@
   </si>
   <si>
     <t>5.9.2018</t>
-  </si>
-  <si>
-    <t>Genus</t>
-  </si>
-  <si>
-    <t>#morphospecies</t>
-  </si>
-  <si>
-    <t>Diadasia</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>large, rounded end to abdomen - rinconis?</t>
-  </si>
-  <si>
-    <t>identifcal to 1 but much smaller</t>
-  </si>
-  <si>
-    <t>abdomenal segments look compressed at end</t>
-  </si>
-  <si>
-    <t>compressed segments at end, much smaller than 3</t>
   </si>
   <si>
     <t>ashmeadiella - red legs</t>
@@ -14964,77 +14936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:U450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U450"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B364" sqref="B364"/>
     </sheetView>
   </sheetViews>
@@ -15050,22 +14955,22 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="G1" t="s">
         <v>18</v>
@@ -15080,7 +14985,7 @@
         <v>313</v>
       </c>
       <c r="L1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M1" t="s">
         <v>22</v>
@@ -15097,7 +15002,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E2">
         <v>21</v>
@@ -15133,7 +15038,7 @@
         <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -15168,7 +15073,7 @@
         <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -15183,7 +15088,7 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -15208,13 +15113,13 @@
         <v>PP.2.April.21.2018.Braun.1</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E5">
         <v>21</v>
@@ -15256,7 +15161,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E6">
         <v>21</v>
@@ -15295,7 +15200,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E7">
         <v>21</v>
@@ -15316,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L7" t="s">
         <v>146</v>
@@ -15334,13 +15239,13 @@
         <v>HH.4.April.21.2018.Braun.1</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E8">
         <v>21</v>
@@ -15378,7 +15283,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E9">
         <v>21</v>
@@ -15414,13 +15319,13 @@
         <v>PP.9.April.21.2018.Braun.1</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E10">
         <v>21</v>
@@ -15455,7 +15360,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E11">
         <v>21</v>
@@ -15500,7 +15405,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E12">
         <v>21</v>
@@ -15543,7 +15448,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E13">
         <v>21</v>
@@ -15585,13 +15490,13 @@
         <v>PP.15.April.21.2018.Braun.1</v>
       </c>
       <c r="B14" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E14">
         <v>21</v>
@@ -15630,13 +15535,13 @@
         <v>PP.17.April.21.2018.Braun.1</v>
       </c>
       <c r="B15" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E15">
         <v>21</v>
@@ -15674,7 +15579,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E16">
         <v>22</v>
@@ -15712,7 +15617,7 @@
         <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E17">
         <v>22</v>
@@ -15754,7 +15659,7 @@
         <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E18">
         <v>22</v>
@@ -15775,10 +15680,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="N18" t="s">
         <v>187</v>
@@ -15796,7 +15701,7 @@
         <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E19">
         <v>22</v>
@@ -15835,13 +15740,13 @@
         <v>PP.27.April.22.2018.Braun.1</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E20">
         <v>22</v>
@@ -15879,7 +15784,7 @@
         <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E21">
         <v>22</v>
@@ -15918,13 +15823,13 @@
         <v>PP.31.April.22.2018.Braun.1</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E22">
         <v>22</v>
@@ -15959,7 +15864,7 @@
         <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -16001,7 +15906,7 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E24">
         <v>22</v>
@@ -16039,7 +15944,7 @@
         <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E25">
         <v>22</v>
@@ -16081,7 +15986,7 @@
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E26">
         <v>23</v>
@@ -16116,7 +16021,7 @@
         <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E27">
         <v>23</v>
@@ -16137,10 +16042,10 @@
         <v>1</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="O27" t="s">
         <v>215</v>
@@ -16155,7 +16060,7 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E28">
         <v>23</v>
@@ -16196,13 +16101,13 @@
         <v>SM.50.April.23.2018.Braun.1</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E29">
         <v>23</v>
@@ -16238,13 +16143,13 @@
         <v>PP.53.April.23.2018.Braun.1</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C30" t="s">
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E30">
         <v>23</v>
@@ -16279,7 +16184,7 @@
         <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E31">
         <v>23</v>
@@ -16318,13 +16223,13 @@
         <v>PP.55.April.23.2018.Braun.1</v>
       </c>
       <c r="B32" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C32" t="s">
         <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E32">
         <v>23</v>
@@ -16363,7 +16268,7 @@
         <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E33">
         <v>23</v>
@@ -16405,7 +16310,7 @@
         <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E34">
         <v>23</v>
@@ -16444,13 +16349,13 @@
         <v>PP.70.April.24.2018.Braun.1</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C35" t="s">
         <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E35">
         <v>24</v>
@@ -16489,13 +16394,13 @@
         <v>PP.70.April.24.2018.Braun.2</v>
       </c>
       <c r="B36" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C36" t="s">
         <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E36">
         <v>24</v>
@@ -16531,13 +16436,13 @@
         <v>LT.85.April.24.2018.Braun.1</v>
       </c>
       <c r="B37" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C37" t="s">
         <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E37">
         <v>24</v>
@@ -16564,7 +16469,7 @@
         <v>138</v>
       </c>
       <c r="M37" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O37" t="s">
         <v>90</v>
@@ -16576,13 +16481,13 @@
         <v>SC.87.April.24.2018.Braun.1</v>
       </c>
       <c r="B38" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C38" t="s">
         <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E38">
         <v>24</v>
@@ -16618,13 +16523,13 @@
         <v>SC.88.April.24.2018.Braun.1</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E39">
         <v>24</v>
@@ -16663,13 +16568,13 @@
         <v>EC.90.April.24.2018.Braun.1</v>
       </c>
       <c r="B40" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E40">
         <v>24</v>
@@ -16708,13 +16613,13 @@
         <v>LT.101.April.25.2018.Braun.1</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E41">
         <v>25</v>
@@ -16750,13 +16655,13 @@
         <v>LT.105.April.25.2018.Braun.1</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C42" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E42">
         <v>25</v>
@@ -16791,7 +16696,7 @@
         <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E43">
         <v>25</v>
@@ -16812,10 +16717,10 @@
         <v>1</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="O43" t="s">
         <v>215</v>
@@ -16830,7 +16735,7 @@
         <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E44">
         <v>25</v>
@@ -16866,13 +16771,13 @@
         <v>SC.112.April.25.2018.Braun.1</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C45" t="s">
         <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E45">
         <v>25</v>
@@ -16908,13 +16813,13 @@
         <v>SC.112.April.25.2018.Braun.2</v>
       </c>
       <c r="B46" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C46" t="s">
         <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E46">
         <v>25</v>
@@ -16950,13 +16855,13 @@
         <v>SC.112.April.25.2018.Braun.3</v>
       </c>
       <c r="B47" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C47" t="s">
         <v>82</v>
       </c>
       <c r="D47" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E47">
         <v>25</v>
@@ -16992,13 +16897,13 @@
         <v>SC.139.April.27.2018.Braun.1</v>
       </c>
       <c r="B48" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C48" t="s">
         <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E48">
         <v>27</v>
@@ -17034,13 +16939,13 @@
         <v>EC.143.April.27.2018.Braun.1</v>
       </c>
       <c r="B49" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C49" t="s">
         <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E49">
         <v>27</v>
@@ -17076,13 +16981,13 @@
         <v>EC.147.April.27.2018.Braun.1</v>
       </c>
       <c r="B50" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C50" t="s">
         <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E50">
         <v>27</v>
@@ -17121,7 +17026,7 @@
         <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E51">
         <v>27</v>
@@ -17157,13 +17062,13 @@
         <v>SD.160.April.27.2018.Braun.1</v>
       </c>
       <c r="B52" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C52" t="s">
         <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E52">
         <v>27</v>
@@ -17202,7 +17107,7 @@
         <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E53">
         <v>28</v>
@@ -17241,7 +17146,7 @@
         <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E54">
         <v>28</v>
@@ -17276,7 +17181,7 @@
         <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E55">
         <v>28</v>
@@ -17312,13 +17217,13 @@
         <v>SC.180.April.28.2018.Braun.1</v>
       </c>
       <c r="B56" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C56" t="s">
         <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E56">
         <v>28</v>
@@ -17356,7 +17261,7 @@
         <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E57">
         <v>28</v>
@@ -17398,7 +17303,7 @@
         <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E58">
         <v>28</v>
@@ -17442,7 +17347,7 @@
         <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E59">
         <v>28</v>
@@ -17478,13 +17383,13 @@
         <v>LT.193.April.28.2018.Braun.1</v>
       </c>
       <c r="B60" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C60" t="s">
         <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E60">
         <v>28</v>
@@ -17523,13 +17428,13 @@
         <v>SC.196.April.28.2018.Braun.1</v>
       </c>
       <c r="B61" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C61" t="s">
         <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E61">
         <v>28</v>
@@ -17565,13 +17470,13 @@
         <v>SC.196.April.28.2018.Braun.2</v>
       </c>
       <c r="B62" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
         <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E62">
         <v>28</v>
@@ -17607,13 +17512,13 @@
         <v>SC.198.April.30.2018.Braun.1</v>
       </c>
       <c r="B63" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C63" t="s">
         <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E63">
         <v>30</v>
@@ -17655,13 +17560,13 @@
         <v>PP.208.April.30.2018.Braun.1</v>
       </c>
       <c r="B64" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E64">
         <v>30</v>
@@ -17699,7 +17604,7 @@
         <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E65">
         <v>30</v>
@@ -17741,7 +17646,7 @@
         <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E66">
         <v>30</v>
@@ -17780,7 +17685,7 @@
         <v>129</v>
       </c>
       <c r="D67" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E67">
         <v>30</v>
@@ -17816,13 +17721,13 @@
         <v>EC.230.April.30.2018.Braun.1</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C68" t="s">
         <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E68">
         <v>30</v>
@@ -17857,7 +17762,7 @@
         <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -17893,13 +17798,13 @@
         <v>LT.242.May.3.2018.Braun.1</v>
       </c>
       <c r="B70" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C70" t="s">
         <v>135</v>
       </c>
       <c r="D70" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -17941,7 +17846,7 @@
         <v>135</v>
       </c>
       <c r="D71" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E71">
         <v>3</v>
@@ -17980,13 +17885,13 @@
         <v>SC.248.May.3.2018.Braun.1</v>
       </c>
       <c r="B72" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C72" t="s">
         <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -18025,13 +17930,13 @@
         <v>SC.248.May.3.2018.Braun.2</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C73" t="s">
         <v>135</v>
       </c>
       <c r="D73" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -18073,7 +17978,7 @@
         <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -18115,7 +18020,7 @@
         <v>168</v>
       </c>
       <c r="D75" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -18150,7 +18055,7 @@
         <v>168</v>
       </c>
       <c r="D76" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -18171,10 +18076,10 @@
         <v>1</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -18188,7 +18093,7 @@
         <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -18209,7 +18114,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
@@ -18228,7 +18133,7 @@
         <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E78">
         <v>4</v>
@@ -18267,13 +18172,13 @@
         <v>LT.275.May.4.2018.Braun.1</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C79" t="s">
         <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -18312,13 +18217,13 @@
         <v>LT.275.May.4.2018.Braun.2</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C80" t="s">
         <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -18357,13 +18262,13 @@
         <v>AS.277.May.4.2018.Braun.1</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C81" t="s">
         <v>168</v>
       </c>
       <c r="D81" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -18402,13 +18307,13 @@
         <v>SC.285.May.4.2018.Braun.1</v>
       </c>
       <c r="B82" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C82" t="s">
         <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -18447,13 +18352,13 @@
         <v>SC.285.May.4.2018.Braun.2</v>
       </c>
       <c r="B83" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C83" t="s">
         <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E83">
         <v>4</v>
@@ -18492,13 +18397,13 @@
         <v>SC.285.May.4.2018.Braun.3</v>
       </c>
       <c r="B84" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C84" t="s">
         <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -18537,7 +18442,7 @@
         <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E85">
         <v>5</v>
@@ -18576,13 +18481,13 @@
         <v>LT.295.May.5.2018.Braun.1</v>
       </c>
       <c r="B86" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C86" t="s">
         <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E86">
         <v>5</v>
@@ -18603,7 +18508,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L86" t="s">
         <v>138</v>
@@ -18621,13 +18526,13 @@
         <v>SC.296.May.5.2018.Braun.1</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s">
         <v>237</v>
       </c>
       <c r="D87" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -18666,13 +18571,13 @@
         <v>SC.296.May.5.2018.Braun.2</v>
       </c>
       <c r="B88" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C88" t="s">
         <v>237</v>
       </c>
       <c r="D88" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E88">
         <v>5</v>
@@ -18711,13 +18616,13 @@
         <v>BW.301.May.5.2018.Braun.1</v>
       </c>
       <c r="B89" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C89" t="s">
         <v>237</v>
       </c>
       <c r="D89" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E89">
         <v>5</v>
@@ -18756,7 +18661,7 @@
         <v>237</v>
       </c>
       <c r="D90" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E90">
         <v>5</v>
@@ -18792,13 +18697,13 @@
         <v>SC.303.May.5.2018.Braun.1</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s">
         <v>237</v>
       </c>
       <c r="D91" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -18834,13 +18739,13 @@
         <v>SC.303.May.5.2018.Braun.2</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C92" t="s">
         <v>237</v>
       </c>
       <c r="D92" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E92">
         <v>5</v>
@@ -18879,7 +18784,7 @@
         <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -18915,13 +18820,13 @@
         <v>SC.311.May.5.2018.Braun.1</v>
       </c>
       <c r="B94" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C94" t="s">
         <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E94">
         <v>5</v>
@@ -18963,13 +18868,13 @@
         <v>SC.311.May.5.2018.Braun.2</v>
       </c>
       <c r="B95" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C95" t="s">
         <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E95">
         <v>5</v>
@@ -19005,13 +18910,13 @@
         <v>SC.312.May.6.2018.Braun.1</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C96" t="s">
         <v>254</v>
       </c>
       <c r="D96" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E96">
         <v>6</v>
@@ -19053,7 +18958,7 @@
         <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E97">
         <v>6</v>
@@ -19077,7 +18982,7 @@
         <v>374</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="O97" t="s">
         <v>172</v>
@@ -19089,13 +18994,13 @@
         <v>SC.322.May.6.2018.Braun.1</v>
       </c>
       <c r="B98" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C98" t="s">
         <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E98">
         <v>6</v>
@@ -19131,13 +19036,13 @@
         <v>SC.322.May.6.2018.Braun.2</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C99" t="s">
         <v>254</v>
       </c>
       <c r="D99" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E99">
         <v>6</v>
@@ -19176,7 +19081,7 @@
         <v>254</v>
       </c>
       <c r="D100" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -19218,7 +19123,7 @@
         <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E101">
         <v>6</v>
@@ -19257,13 +19162,13 @@
         <v>AS.327.May.6.2018.Braun.1</v>
       </c>
       <c r="B102" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C102" t="s">
         <v>254</v>
       </c>
       <c r="D102" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -19284,7 +19189,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L102" t="s">
         <v>138</v>
@@ -19302,13 +19207,13 @@
         <v>SC.328.May.6.2018.Braun.1</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C103" t="s">
         <v>254</v>
       </c>
       <c r="D103" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -19343,7 +19248,7 @@
         <v>272</v>
       </c>
       <c r="D104" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E104">
         <v>7</v>
@@ -19364,10 +19269,10 @@
         <v>1</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
@@ -19385,7 +19290,7 @@
         <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E105">
         <v>7</v>
@@ -19412,7 +19317,7 @@
         <v>146</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4" t="s">
@@ -19429,7 +19334,7 @@
         <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E106">
         <v>7</v>
@@ -19471,7 +19376,7 @@
         <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E107">
         <v>7</v>
@@ -19510,13 +19415,13 @@
         <v>LT.339.May.7.2018.Braun.1</v>
       </c>
       <c r="B108" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C108" t="s">
         <v>272</v>
       </c>
       <c r="D108" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E108">
         <v>7</v>
@@ -19558,7 +19463,7 @@
         <v>272</v>
       </c>
       <c r="D109" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -19593,7 +19498,7 @@
         <v>272</v>
       </c>
       <c r="D110" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E110">
         <v>7</v>
@@ -19614,10 +19519,10 @@
         <v>1</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -19631,7 +19536,7 @@
         <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E111">
         <v>7</v>
@@ -19652,10 +19557,10 @@
         <v>1</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -19673,7 +19578,7 @@
         <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E112">
         <v>7</v>
@@ -19709,13 +19614,13 @@
         <v>SC.356.May.7.2018.Braun.1</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C113" t="s">
         <v>272</v>
       </c>
       <c r="D113" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E113">
         <v>7</v>
@@ -19751,13 +19656,13 @@
         <v>SC.359.May.7.2018.Braun.1</v>
       </c>
       <c r="B114" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C114" t="s">
         <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E114">
         <v>7</v>
@@ -19796,7 +19701,7 @@
         <v>285</v>
       </c>
       <c r="D115" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E115">
         <v>8</v>
@@ -19835,13 +19740,13 @@
         <v>LT.366.May.8.2018.Braun.1</v>
       </c>
       <c r="B116" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C116" t="s">
         <v>285</v>
       </c>
       <c r="D116" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E116">
         <v>8</v>
@@ -19880,13 +19785,13 @@
         <v>AS.371.May.8.2018.Braun.1</v>
       </c>
       <c r="B117" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
         <v>285</v>
       </c>
       <c r="D117" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E117">
         <v>8</v>
@@ -19924,7 +19829,7 @@
         <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E118">
         <v>27</v>
@@ -19959,7 +19864,7 @@
         <v>98</v>
       </c>
       <c r="D119" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E119">
         <v>26</v>
@@ -19997,7 +19902,7 @@
         <v>237</v>
       </c>
       <c r="D120" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E120">
         <v>5</v>
@@ -20032,7 +19937,7 @@
         <v>81</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E121">
         <v>22</v>
@@ -20070,7 +19975,7 @@
         <v>104</v>
       </c>
       <c r="D122" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E122">
         <v>27</v>
@@ -20108,7 +20013,7 @@
         <v>237</v>
       </c>
       <c r="D123" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -20146,7 +20051,7 @@
         <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E124">
         <v>4</v>
@@ -20184,7 +20089,7 @@
         <v>272</v>
       </c>
       <c r="D125" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E125">
         <v>7</v>
@@ -20224,7 +20129,7 @@
         <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E126">
         <v>7</v>
@@ -20259,7 +20164,7 @@
         <v>98</v>
       </c>
       <c r="D127" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E127">
         <v>26</v>
@@ -20297,7 +20202,7 @@
         <v>135</v>
       </c>
       <c r="D128" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E128">
         <v>3</v>
@@ -20332,7 +20237,7 @@
         <v>168</v>
       </c>
       <c r="D129" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E129">
         <v>4</v>
@@ -20370,7 +20275,7 @@
         <v>254</v>
       </c>
       <c r="D130" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E130">
         <v>6</v>
@@ -20408,7 +20313,7 @@
         <v>272</v>
       </c>
       <c r="D131" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E131">
         <v>7</v>
@@ -20443,7 +20348,7 @@
         <v>285</v>
       </c>
       <c r="D132" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E132">
         <v>8</v>
@@ -20481,7 +20386,7 @@
         <v>82</v>
       </c>
       <c r="D133" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E133">
         <v>25</v>
@@ -20519,7 +20424,7 @@
         <v>82</v>
       </c>
       <c r="D134" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E134">
         <v>25</v>
@@ -20557,7 +20462,7 @@
         <v>122</v>
       </c>
       <c r="D135" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E135">
         <v>28</v>
@@ -20592,7 +20497,7 @@
         <v>168</v>
       </c>
       <c r="D136" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E136">
         <v>4</v>
@@ -20630,7 +20535,7 @@
         <v>168</v>
       </c>
       <c r="D137" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -20668,7 +20573,7 @@
         <v>168</v>
       </c>
       <c r="D138" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E138">
         <v>4</v>
@@ -20703,7 +20608,7 @@
         <v>272</v>
       </c>
       <c r="D139" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E139">
         <v>7</v>
@@ -20741,7 +20646,7 @@
         <v>272</v>
       </c>
       <c r="D140" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -20762,10 +20667,10 @@
         <v>4</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M140" t="s">
         <v>277</v>
@@ -20779,7 +20684,7 @@
         <v>272</v>
       </c>
       <c r="D141" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E141">
         <v>7</v>
@@ -20814,7 +20719,7 @@
         <v>272</v>
       </c>
       <c r="D142" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E142">
         <v>7</v>
@@ -20849,7 +20754,7 @@
         <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E143">
         <v>21</v>
@@ -20884,7 +20789,7 @@
         <v>20</v>
       </c>
       <c r="D144" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E144">
         <v>21</v>
@@ -20919,7 +20824,7 @@
         <v>81</v>
       </c>
       <c r="D145" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E145">
         <v>22</v>
@@ -20954,7 +20859,7 @@
         <v>64</v>
       </c>
       <c r="D146" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E146">
         <v>24</v>
@@ -20989,7 +20894,7 @@
         <v>64</v>
       </c>
       <c r="D147" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E147">
         <v>24</v>
@@ -21024,7 +20929,7 @@
         <v>64</v>
       </c>
       <c r="D148" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E148">
         <v>24</v>
@@ -21059,7 +20964,7 @@
         <v>82</v>
       </c>
       <c r="D149" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E149">
         <v>25</v>
@@ -21097,7 +21002,7 @@
         <v>98</v>
       </c>
       <c r="D150" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E150">
         <v>26</v>
@@ -21138,7 +21043,7 @@
         <v>104</v>
       </c>
       <c r="D151" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E151">
         <v>27</v>
@@ -21173,7 +21078,7 @@
         <v>104</v>
       </c>
       <c r="D152" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E152">
         <v>27</v>
@@ -21208,7 +21113,7 @@
         <v>104</v>
       </c>
       <c r="D153" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E153">
         <v>27</v>
@@ -21246,7 +21151,7 @@
         <v>104</v>
       </c>
       <c r="D154" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E154">
         <v>27</v>
@@ -21281,7 +21186,7 @@
         <v>104</v>
       </c>
       <c r="D155" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E155">
         <v>27</v>
@@ -21316,7 +21221,7 @@
         <v>104</v>
       </c>
       <c r="D156" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E156">
         <v>27</v>
@@ -21351,7 +21256,7 @@
         <v>104</v>
       </c>
       <c r="D157" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E157">
         <v>27</v>
@@ -21386,7 +21291,7 @@
         <v>129</v>
       </c>
       <c r="D158" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E158">
         <v>30</v>
@@ -21424,7 +21329,7 @@
         <v>168</v>
       </c>
       <c r="D159" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E159">
         <v>4</v>
@@ -21459,7 +21364,7 @@
         <v>168</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E160">
         <v>4</v>
@@ -21494,7 +21399,7 @@
         <v>168</v>
       </c>
       <c r="D161" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E161">
         <v>4</v>
@@ -21529,7 +21434,7 @@
         <v>168</v>
       </c>
       <c r="D162" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E162">
         <v>4</v>
@@ -21564,7 +21469,7 @@
         <v>237</v>
       </c>
       <c r="D163" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -21599,7 +21504,7 @@
         <v>237</v>
       </c>
       <c r="D164" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -21637,7 +21542,7 @@
         <v>237</v>
       </c>
       <c r="D165" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -21675,7 +21580,7 @@
         <v>254</v>
       </c>
       <c r="D166" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E166">
         <v>6</v>
@@ -21710,7 +21615,7 @@
         <v>254</v>
       </c>
       <c r="D167" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -21748,7 +21653,7 @@
         <v>285</v>
       </c>
       <c r="D168" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -21786,7 +21691,7 @@
         <v>285</v>
       </c>
       <c r="D169" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -21821,7 +21726,7 @@
         <v>285</v>
       </c>
       <c r="D170" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E170">
         <v>8</v>
@@ -21859,7 +21764,7 @@
         <v>285</v>
       </c>
       <c r="D171" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E171">
         <v>8</v>
@@ -21898,7 +21803,7 @@
         <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E172">
         <v>21</v>
@@ -21933,7 +21838,7 @@
         <v>81</v>
       </c>
       <c r="D173" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E173">
         <v>22</v>
@@ -21971,7 +21876,7 @@
         <v>81</v>
       </c>
       <c r="D174" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E174">
         <v>22</v>
@@ -22009,7 +21914,7 @@
         <v>80</v>
       </c>
       <c r="D175" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E175">
         <v>23</v>
@@ -22030,7 +21935,7 @@
         <v>2</v>
       </c>
       <c r="K175" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L175" t="s">
         <v>138</v>
@@ -22047,7 +21952,7 @@
         <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E176">
         <v>23</v>
@@ -22082,7 +21987,7 @@
         <v>80</v>
       </c>
       <c r="D177" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E177">
         <v>23</v>
@@ -22117,7 +22022,7 @@
         <v>80</v>
       </c>
       <c r="D178" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E178">
         <v>23</v>
@@ -22155,7 +22060,7 @@
         <v>80</v>
       </c>
       <c r="D179" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E179">
         <v>23</v>
@@ -22190,7 +22095,7 @@
         <v>64</v>
       </c>
       <c r="D180" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E180">
         <v>24</v>
@@ -22228,7 +22133,7 @@
         <v>64</v>
       </c>
       <c r="D181" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E181">
         <v>24</v>
@@ -22263,7 +22168,7 @@
         <v>64</v>
       </c>
       <c r="D182" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E182">
         <v>24</v>
@@ -22298,7 +22203,7 @@
         <v>64</v>
       </c>
       <c r="D183" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E183">
         <v>24</v>
@@ -22333,7 +22238,7 @@
         <v>82</v>
       </c>
       <c r="D184" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E184">
         <v>25</v>
@@ -22368,7 +22273,7 @@
         <v>82</v>
       </c>
       <c r="D185" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E185">
         <v>25</v>
@@ -22409,7 +22314,7 @@
         <v>82</v>
       </c>
       <c r="D186" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E186">
         <v>25</v>
@@ -22447,7 +22352,7 @@
         <v>82</v>
       </c>
       <c r="D187" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E187">
         <v>25</v>
@@ -22485,7 +22390,7 @@
         <v>82</v>
       </c>
       <c r="D188" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E188">
         <v>25</v>
@@ -22523,7 +22428,7 @@
         <v>82</v>
       </c>
       <c r="D189" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E189">
         <v>25</v>
@@ -22558,7 +22463,7 @@
         <v>98</v>
       </c>
       <c r="D190" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E190">
         <v>26</v>
@@ -22593,7 +22498,7 @@
         <v>98</v>
       </c>
       <c r="D191" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E191">
         <v>26</v>
@@ -22628,7 +22533,7 @@
         <v>104</v>
       </c>
       <c r="D192" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E192">
         <v>27</v>
@@ -22663,7 +22568,7 @@
         <v>104</v>
       </c>
       <c r="D193" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E193">
         <v>27</v>
@@ -22698,7 +22603,7 @@
         <v>122</v>
       </c>
       <c r="D194" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E194">
         <v>28</v>
@@ -22733,7 +22638,7 @@
         <v>122</v>
       </c>
       <c r="D195" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E195">
         <v>28</v>
@@ -22768,7 +22673,7 @@
         <v>122</v>
       </c>
       <c r="D196" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E196">
         <v>28</v>
@@ -22803,7 +22708,7 @@
         <v>122</v>
       </c>
       <c r="D197" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E197">
         <v>28</v>
@@ -22838,7 +22743,7 @@
         <v>122</v>
       </c>
       <c r="D198" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E198">
         <v>28</v>
@@ -22873,7 +22778,7 @@
         <v>129</v>
       </c>
       <c r="D199" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E199">
         <v>30</v>
@@ -22908,7 +22813,7 @@
         <v>129</v>
       </c>
       <c r="D200" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E200">
         <v>30</v>
@@ -22943,7 +22848,7 @@
         <v>129</v>
       </c>
       <c r="D201" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E201">
         <v>30</v>
@@ -22978,7 +22883,7 @@
         <v>129</v>
       </c>
       <c r="D202" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E202">
         <v>30</v>
@@ -23016,7 +22921,7 @@
         <v>129</v>
       </c>
       <c r="D203" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E203">
         <v>30</v>
@@ -23054,7 +22959,7 @@
         <v>129</v>
       </c>
       <c r="D204" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E204">
         <v>30</v>
@@ -23089,7 +22994,7 @@
         <v>135</v>
       </c>
       <c r="D205" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E205">
         <v>3</v>
@@ -23124,7 +23029,7 @@
         <v>168</v>
       </c>
       <c r="D206" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E206">
         <v>4</v>
@@ -23159,7 +23064,7 @@
         <v>168</v>
       </c>
       <c r="D207" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E207">
         <v>4</v>
@@ -23199,7 +23104,7 @@
         <v>168</v>
       </c>
       <c r="D208" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E208">
         <v>4</v>
@@ -23237,7 +23142,7 @@
         <v>168</v>
       </c>
       <c r="D209" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E209">
         <v>4</v>
@@ -23272,7 +23177,7 @@
         <v>168</v>
       </c>
       <c r="D210" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E210">
         <v>4</v>
@@ -23307,7 +23212,7 @@
         <v>237</v>
       </c>
       <c r="D211" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -23342,7 +23247,7 @@
         <v>237</v>
       </c>
       <c r="D212" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -23380,7 +23285,7 @@
         <v>237</v>
       </c>
       <c r="D213" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E213">
         <v>5</v>
@@ -23418,7 +23323,7 @@
         <v>254</v>
       </c>
       <c r="D214" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E214">
         <v>6</v>
@@ -23453,7 +23358,7 @@
         <v>254</v>
       </c>
       <c r="D215" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E215">
         <v>6</v>
@@ -23491,7 +23396,7 @@
         <v>254</v>
       </c>
       <c r="D216" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E216">
         <v>6</v>
@@ -23526,7 +23431,7 @@
         <v>272</v>
       </c>
       <c r="D217" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E217">
         <v>7</v>
@@ -23564,7 +23469,7 @@
         <v>272</v>
       </c>
       <c r="D218" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E218">
         <v>7</v>
@@ -23585,10 +23490,10 @@
         <v>2</v>
       </c>
       <c r="K218" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M218" s="4" t="s">
         <v>277</v>
@@ -23604,7 +23509,7 @@
         <v>272</v>
       </c>
       <c r="D219" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E219">
         <v>7</v>
@@ -23628,7 +23533,7 @@
         <v>312</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="O219" t="s">
         <v>35</v>
@@ -23639,7 +23544,7 @@
         <v>285</v>
       </c>
       <c r="D220" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E220">
         <v>8</v>
@@ -23674,7 +23579,7 @@
         <v>285</v>
       </c>
       <c r="D221" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E221">
         <v>8</v>
@@ -23709,7 +23614,7 @@
         <v>285</v>
       </c>
       <c r="D222" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -23744,7 +23649,7 @@
         <v>285</v>
       </c>
       <c r="D223" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E223">
         <v>8</v>
@@ -23782,7 +23687,7 @@
         <v>285</v>
       </c>
       <c r="D224" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E224">
         <v>8</v>
@@ -23821,7 +23726,7 @@
         <v>20</v>
       </c>
       <c r="D225" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E225">
         <v>21</v>
@@ -23842,7 +23747,7 @@
         <v>1</v>
       </c>
       <c r="K225" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L225" t="s">
         <v>146</v>
@@ -23866,7 +23771,7 @@
         <v>20</v>
       </c>
       <c r="D226" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E226">
         <v>21</v>
@@ -23908,7 +23813,7 @@
         <v>20</v>
       </c>
       <c r="D227" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E227">
         <v>21</v>
@@ -23949,7 +23854,7 @@
         <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E228">
         <v>21</v>
@@ -23992,7 +23897,7 @@
         <v>20</v>
       </c>
       <c r="D229" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E229">
         <v>21</v>
@@ -24030,7 +23935,7 @@
         <v>20</v>
       </c>
       <c r="D230" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E230">
         <v>21</v>
@@ -24054,7 +23959,7 @@
         <v>312</v>
       </c>
       <c r="L230" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M230" t="s">
         <v>36</v>
@@ -24068,7 +23973,7 @@
         <v>20</v>
       </c>
       <c r="D231" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E231">
         <v>21</v>
@@ -24106,7 +24011,7 @@
         <v>20</v>
       </c>
       <c r="D232" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E232">
         <v>21</v>
@@ -24144,7 +24049,7 @@
         <v>81</v>
       </c>
       <c r="D233" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E233">
         <v>22</v>
@@ -24182,7 +24087,7 @@
         <v>81</v>
       </c>
       <c r="D234" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E234">
         <v>22</v>
@@ -24203,10 +24108,10 @@
         <v>1</v>
       </c>
       <c r="K234" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L234" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="O234" t="s">
         <v>41</v>
@@ -24217,7 +24122,7 @@
         <v>81</v>
       </c>
       <c r="D235" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E235">
         <v>22</v>
@@ -24255,7 +24160,7 @@
         <v>81</v>
       </c>
       <c r="D236" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E236">
         <v>22</v>
@@ -24292,7 +24197,7 @@
         <v>81</v>
       </c>
       <c r="D237" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E237">
         <v>22</v>
@@ -24329,7 +24234,7 @@
         <v>81</v>
       </c>
       <c r="D238" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E238">
         <v>22</v>
@@ -24361,7 +24266,7 @@
         <v>81</v>
       </c>
       <c r="D239" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E239">
         <v>22</v>
@@ -24396,7 +24301,7 @@
         <v>81</v>
       </c>
       <c r="D240" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E240">
         <v>22</v>
@@ -24434,7 +24339,7 @@
         <v>81</v>
       </c>
       <c r="D241" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E241">
         <v>22</v>
@@ -24472,7 +24377,7 @@
         <v>81</v>
       </c>
       <c r="D242" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E242">
         <v>22</v>
@@ -24507,7 +24412,7 @@
         <v>81</v>
       </c>
       <c r="D243" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E243">
         <v>22</v>
@@ -24544,7 +24449,7 @@
         <v>81</v>
       </c>
       <c r="D244" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E244">
         <v>22</v>
@@ -24582,7 +24487,7 @@
         <v>81</v>
       </c>
       <c r="D245" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E245">
         <v>22</v>
@@ -24617,7 +24522,7 @@
         <v>80</v>
       </c>
       <c r="D246" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E246">
         <v>23</v>
@@ -24657,7 +24562,7 @@
         <v>80</v>
       </c>
       <c r="D247" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E247">
         <v>23</v>
@@ -24692,7 +24597,7 @@
         <v>80</v>
       </c>
       <c r="D248" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E248">
         <v>23</v>
@@ -24727,7 +24632,7 @@
         <v>80</v>
       </c>
       <c r="D249" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E249">
         <v>23</v>
@@ -24765,7 +24670,7 @@
         <v>80</v>
       </c>
       <c r="D250" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E250">
         <v>23</v>
@@ -24800,7 +24705,7 @@
         <v>80</v>
       </c>
       <c r="D251" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E251">
         <v>23</v>
@@ -24824,7 +24729,7 @@
         <v>58</v>
       </c>
       <c r="L251" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="O251" t="s">
         <v>58</v>
@@ -24835,7 +24740,7 @@
         <v>80</v>
       </c>
       <c r="D252" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E252">
         <v>23</v>
@@ -24870,7 +24775,7 @@
         <v>80</v>
       </c>
       <c r="D253" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E253">
         <v>23</v>
@@ -24905,7 +24810,7 @@
         <v>80</v>
       </c>
       <c r="D254" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E254">
         <v>23</v>
@@ -24940,7 +24845,7 @@
         <v>80</v>
       </c>
       <c r="D255" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E255">
         <v>23</v>
@@ -24975,7 +24880,7 @@
         <v>80</v>
       </c>
       <c r="D256" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E256">
         <v>23</v>
@@ -25010,7 +24915,7 @@
         <v>80</v>
       </c>
       <c r="D257" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E257">
         <v>23</v>
@@ -25045,7 +24950,7 @@
         <v>80</v>
       </c>
       <c r="D258" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E258">
         <v>23</v>
@@ -25080,7 +24985,7 @@
         <v>80</v>
       </c>
       <c r="D259" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E259">
         <v>23</v>
@@ -25115,7 +25020,7 @@
         <v>80</v>
       </c>
       <c r="D260" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E260">
         <v>23</v>
@@ -25150,7 +25055,7 @@
         <v>64</v>
       </c>
       <c r="D261" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E261">
         <v>24</v>
@@ -25177,7 +25082,7 @@
         <v>149</v>
       </c>
       <c r="M261" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="O261" t="s">
         <v>65</v>
@@ -25188,7 +25093,7 @@
         <v>64</v>
       </c>
       <c r="D262" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E262">
         <v>24</v>
@@ -25209,10 +25114,10 @@
         <v>1</v>
       </c>
       <c r="K262" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M262" t="s">
         <v>67</v>
@@ -25226,7 +25131,7 @@
         <v>64</v>
       </c>
       <c r="D263" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E263">
         <v>24</v>
@@ -25264,7 +25169,7 @@
         <v>64</v>
       </c>
       <c r="D264" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E264">
         <v>24</v>
@@ -25285,10 +25190,10 @@
         <v>1</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="O264" t="s">
         <v>66</v>
@@ -25301,7 +25206,7 @@
         <v>64</v>
       </c>
       <c r="D265" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E265">
         <v>24</v>
@@ -25339,7 +25244,7 @@
         <v>64</v>
       </c>
       <c r="D266" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E266">
         <v>24</v>
@@ -25363,7 +25268,7 @@
         <v>312</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M266" t="s">
         <v>72</v>
@@ -25377,7 +25282,7 @@
         <v>64</v>
       </c>
       <c r="D267" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E267">
         <v>24</v>
@@ -25412,7 +25317,7 @@
         <v>64</v>
       </c>
       <c r="D268" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E268">
         <v>24</v>
@@ -25447,7 +25352,7 @@
         <v>64</v>
       </c>
       <c r="D269" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E269">
         <v>24</v>
@@ -25482,7 +25387,7 @@
         <v>64</v>
       </c>
       <c r="D270" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E270">
         <v>24</v>
@@ -25509,7 +25414,7 @@
         <v>138</v>
       </c>
       <c r="M270" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="O270" t="s">
         <v>74</v>
@@ -25520,7 +25425,7 @@
         <v>64</v>
       </c>
       <c r="D271" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E271">
         <v>24</v>
@@ -25555,7 +25460,7 @@
         <v>64</v>
       </c>
       <c r="D272" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E272">
         <v>24</v>
@@ -25590,7 +25495,7 @@
         <v>64</v>
       </c>
       <c r="D273" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E273">
         <v>24</v>
@@ -25625,7 +25530,7 @@
         <v>64</v>
       </c>
       <c r="D274" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E274">
         <v>24</v>
@@ -25663,7 +25568,7 @@
         <v>64</v>
       </c>
       <c r="D275" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E275">
         <v>24</v>
@@ -25701,7 +25606,7 @@
         <v>64</v>
       </c>
       <c r="D276" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E276">
         <v>24</v>
@@ -25739,7 +25644,7 @@
         <v>64</v>
       </c>
       <c r="D277" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E277">
         <v>24</v>
@@ -25774,7 +25679,7 @@
         <v>64</v>
       </c>
       <c r="D278" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E278">
         <v>24</v>
@@ -25809,7 +25714,7 @@
         <v>82</v>
       </c>
       <c r="D279" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E279">
         <v>25</v>
@@ -25847,7 +25752,7 @@
         <v>82</v>
       </c>
       <c r="D280" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E280">
         <v>25</v>
@@ -25882,7 +25787,7 @@
         <v>82</v>
       </c>
       <c r="D281" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E281">
         <v>25</v>
@@ -25920,7 +25825,7 @@
         <v>82</v>
       </c>
       <c r="D282" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E282">
         <v>25</v>
@@ -25955,7 +25860,7 @@
         <v>82</v>
       </c>
       <c r="D283" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E283">
         <v>25</v>
@@ -25993,7 +25898,7 @@
         <v>82</v>
       </c>
       <c r="D284" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E284">
         <v>25</v>
@@ -26031,7 +25936,7 @@
         <v>82</v>
       </c>
       <c r="D285" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E285">
         <v>25</v>
@@ -26069,7 +25974,7 @@
         <v>82</v>
       </c>
       <c r="D286" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E286">
         <v>25</v>
@@ -26107,7 +26012,7 @@
         <v>82</v>
       </c>
       <c r="D287" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E287">
         <v>25</v>
@@ -26145,7 +26050,7 @@
         <v>82</v>
       </c>
       <c r="D288" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E288">
         <v>25</v>
@@ -26180,7 +26085,7 @@
         <v>82</v>
       </c>
       <c r="D289" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E289">
         <v>25</v>
@@ -26215,7 +26120,7 @@
         <v>98</v>
       </c>
       <c r="D290" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E290">
         <v>26</v>
@@ -26250,7 +26155,7 @@
         <v>98</v>
       </c>
       <c r="D291" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E291">
         <v>26</v>
@@ -26285,7 +26190,7 @@
         <v>98</v>
       </c>
       <c r="D292" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E292">
         <v>26</v>
@@ -26320,7 +26225,7 @@
         <v>98</v>
       </c>
       <c r="D293" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E293">
         <v>26</v>
@@ -26355,7 +26260,7 @@
         <v>98</v>
       </c>
       <c r="D294" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E294">
         <v>26</v>
@@ -26390,7 +26295,7 @@
         <v>98</v>
       </c>
       <c r="D295" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E295">
         <v>26</v>
@@ -26425,7 +26330,7 @@
         <v>98</v>
       </c>
       <c r="D296" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E296">
         <v>26</v>
@@ -26463,7 +26368,7 @@
         <v>104</v>
       </c>
       <c r="D297" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E297">
         <v>27</v>
@@ -26498,7 +26403,7 @@
         <v>104</v>
       </c>
       <c r="D298" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E298">
         <v>27</v>
@@ -26536,7 +26441,7 @@
         <v>104</v>
       </c>
       <c r="D299" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E299">
         <v>27</v>
@@ -26574,7 +26479,7 @@
         <v>104</v>
       </c>
       <c r="D300" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E300">
         <v>27</v>
@@ -26609,7 +26514,7 @@
         <v>104</v>
       </c>
       <c r="D301" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E301">
         <v>27</v>
@@ -26644,7 +26549,7 @@
         <v>104</v>
       </c>
       <c r="D302" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E302">
         <v>27</v>
@@ -26679,7 +26584,7 @@
         <v>104</v>
       </c>
       <c r="D303" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E303">
         <v>27</v>
@@ -26714,7 +26619,7 @@
         <v>104</v>
       </c>
       <c r="D304" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E304">
         <v>27</v>
@@ -26752,7 +26657,7 @@
         <v>104</v>
       </c>
       <c r="D305" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E305">
         <v>27</v>
@@ -26787,7 +26692,7 @@
         <v>104</v>
       </c>
       <c r="D306" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E306">
         <v>27</v>
@@ -26822,7 +26727,7 @@
         <v>104</v>
       </c>
       <c r="D307" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E307">
         <v>27</v>
@@ -26860,7 +26765,7 @@
         <v>104</v>
       </c>
       <c r="D308" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E308">
         <v>27</v>
@@ -26895,7 +26800,7 @@
         <v>104</v>
       </c>
       <c r="D309" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E309">
         <v>27</v>
@@ -26930,7 +26835,7 @@
         <v>104</v>
       </c>
       <c r="D310" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E310">
         <v>27</v>
@@ -26965,7 +26870,7 @@
         <v>104</v>
       </c>
       <c r="D311" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E311">
         <v>27</v>
@@ -27000,7 +26905,7 @@
         <v>104</v>
       </c>
       <c r="D312" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E312">
         <v>27</v>
@@ -27035,7 +26940,7 @@
         <v>104</v>
       </c>
       <c r="D313" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E313">
         <v>27</v>
@@ -27073,7 +26978,7 @@
         <v>104</v>
       </c>
       <c r="D314" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E314">
         <v>27</v>
@@ -27108,7 +27013,7 @@
         <v>104</v>
       </c>
       <c r="D315" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E315">
         <v>27</v>
@@ -27143,7 +27048,7 @@
         <v>104</v>
       </c>
       <c r="D316" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E316">
         <v>27</v>
@@ -27181,7 +27086,7 @@
         <v>122</v>
       </c>
       <c r="D317" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E317">
         <v>28</v>
@@ -27216,7 +27121,7 @@
         <v>122</v>
       </c>
       <c r="D318" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E318">
         <v>28</v>
@@ -27251,7 +27156,7 @@
         <v>122</v>
       </c>
       <c r="D319" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E319">
         <v>28</v>
@@ -27286,7 +27191,7 @@
         <v>122</v>
       </c>
       <c r="D320" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E320">
         <v>28</v>
@@ -27324,7 +27229,7 @@
         <v>122</v>
       </c>
       <c r="D321" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E321">
         <v>28</v>
@@ -27359,7 +27264,7 @@
         <v>122</v>
       </c>
       <c r="D322" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E322">
         <v>28</v>
@@ -27394,7 +27299,7 @@
         <v>122</v>
       </c>
       <c r="D323" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E323">
         <v>28</v>
@@ -27432,7 +27337,7 @@
         <v>122</v>
       </c>
       <c r="D324" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E324">
         <v>28</v>
@@ -27467,7 +27372,7 @@
         <v>122</v>
       </c>
       <c r="D325" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E325">
         <v>28</v>
@@ -27502,7 +27407,7 @@
         <v>122</v>
       </c>
       <c r="D326" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E326">
         <v>28</v>
@@ -27540,7 +27445,7 @@
         <v>122</v>
       </c>
       <c r="D327" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E327">
         <v>28</v>
@@ -27575,7 +27480,7 @@
         <v>122</v>
       </c>
       <c r="D328" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E328">
         <v>28</v>
@@ -27610,7 +27515,7 @@
         <v>122</v>
       </c>
       <c r="D329" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E329">
         <v>28</v>
@@ -27648,7 +27553,7 @@
         <v>122</v>
       </c>
       <c r="D330" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E330">
         <v>28</v>
@@ -27686,7 +27591,7 @@
         <v>122</v>
       </c>
       <c r="D331" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E331">
         <v>28</v>
@@ -27721,7 +27626,7 @@
         <v>122</v>
       </c>
       <c r="D332" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E332">
         <v>28</v>
@@ -27756,7 +27661,7 @@
         <v>129</v>
       </c>
       <c r="D333" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E333">
         <v>30</v>
@@ -27791,7 +27696,7 @@
         <v>129</v>
       </c>
       <c r="D334" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E334">
         <v>30</v>
@@ -27812,10 +27717,10 @@
         <v>1</v>
       </c>
       <c r="K334" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="L334" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="O334" t="s">
         <v>41</v>
@@ -27826,7 +27731,7 @@
         <v>129</v>
       </c>
       <c r="D335" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E335">
         <v>30</v>
@@ -27861,7 +27766,7 @@
         <v>129</v>
       </c>
       <c r="D336" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E336">
         <v>30</v>
@@ -27896,7 +27801,7 @@
         <v>129</v>
       </c>
       <c r="D337" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E337">
         <v>30</v>
@@ -27920,7 +27825,7 @@
         <v>312</v>
       </c>
       <c r="L337" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M337" t="s">
         <v>134</v>
@@ -27934,7 +27839,7 @@
         <v>129</v>
       </c>
       <c r="D338" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E338">
         <v>30</v>
@@ -27969,7 +27874,7 @@
         <v>129</v>
       </c>
       <c r="D339" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E339">
         <v>30</v>
@@ -27993,7 +27898,7 @@
         <v>312</v>
       </c>
       <c r="L339" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M339" t="s">
         <v>131</v>
@@ -28007,7 +27912,7 @@
         <v>129</v>
       </c>
       <c r="D340" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E340">
         <v>30</v>
@@ -28042,7 +27947,7 @@
         <v>129</v>
       </c>
       <c r="D341" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E341">
         <v>30</v>
@@ -28077,7 +27982,7 @@
         <v>129</v>
       </c>
       <c r="D342" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E342">
         <v>30</v>
@@ -28112,7 +28017,7 @@
         <v>129</v>
       </c>
       <c r="D343" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E343">
         <v>30</v>
@@ -28147,7 +28052,7 @@
         <v>129</v>
       </c>
       <c r="D344" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E344">
         <v>30</v>
@@ -28182,7 +28087,7 @@
         <v>129</v>
       </c>
       <c r="D345" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E345">
         <v>30</v>
@@ -28217,7 +28122,7 @@
         <v>129</v>
       </c>
       <c r="D346" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E346">
         <v>30</v>
@@ -28255,7 +28160,7 @@
         <v>129</v>
       </c>
       <c r="D347" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E347">
         <v>30</v>
@@ -28292,7 +28197,7 @@
         <v>129</v>
       </c>
       <c r="D348" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E348">
         <v>30</v>
@@ -28332,7 +28237,7 @@
         <v>129</v>
       </c>
       <c r="D349" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E349">
         <v>30</v>
@@ -28356,7 +28261,7 @@
         <v>312</v>
       </c>
       <c r="L349" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M349" t="s">
         <v>134</v>
@@ -28375,7 +28280,7 @@
         <v>135</v>
       </c>
       <c r="D350" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E350">
         <v>3</v>
@@ -28413,7 +28318,7 @@
         <v>135</v>
       </c>
       <c r="D351" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E351">
         <v>3</v>
@@ -28451,7 +28356,7 @@
         <v>135</v>
       </c>
       <c r="D352" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E352">
         <v>3</v>
@@ -28489,7 +28394,7 @@
         <v>135</v>
       </c>
       <c r="D353" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E353">
         <v>3</v>
@@ -28524,7 +28429,7 @@
         <v>135</v>
       </c>
       <c r="D354" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E354">
         <v>3</v>
@@ -28562,7 +28467,7 @@
         <v>135</v>
       </c>
       <c r="D355" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E355">
         <v>3</v>
@@ -28597,7 +28502,7 @@
         <v>135</v>
       </c>
       <c r="D356" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E356">
         <v>3</v>
@@ -28632,7 +28537,7 @@
         <v>135</v>
       </c>
       <c r="D357" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E357">
         <v>3</v>
@@ -28667,7 +28572,7 @@
         <v>135</v>
       </c>
       <c r="D358" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E358">
         <v>3</v>
@@ -28704,7 +28609,7 @@
         <v>135</v>
       </c>
       <c r="D359" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E359">
         <v>3</v>
@@ -28744,7 +28649,7 @@
         <v>135</v>
       </c>
       <c r="D360" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E360">
         <v>3</v>
@@ -28779,16 +28684,16 @@
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B361" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C361" t="s">
         <v>135</v>
       </c>
       <c r="D361" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E361">
         <v>3</v>
@@ -28829,7 +28734,7 @@
         <v>135</v>
       </c>
       <c r="D362" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E362">
         <v>3</v>
@@ -28864,7 +28769,7 @@
         <v>168</v>
       </c>
       <c r="D363" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E363">
         <v>4</v>
@@ -28899,7 +28804,7 @@
         <v>168</v>
       </c>
       <c r="D364" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E364">
         <v>4</v>
@@ -28937,7 +28842,7 @@
         <v>168</v>
       </c>
       <c r="D365" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E365">
         <v>4</v>
@@ -28977,7 +28882,7 @@
         <v>168</v>
       </c>
       <c r="D366" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E366">
         <v>4</v>
@@ -29020,7 +28925,7 @@
         <v>168</v>
       </c>
       <c r="D367" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E367">
         <v>4</v>
@@ -29055,7 +28960,7 @@
         <v>168</v>
       </c>
       <c r="D368" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E368">
         <v>4</v>
@@ -29093,7 +28998,7 @@
         <v>168</v>
       </c>
       <c r="D369" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E369">
         <v>4</v>
@@ -29131,7 +29036,7 @@
         <v>168</v>
       </c>
       <c r="D370" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E370">
         <v>4</v>
@@ -29171,7 +29076,7 @@
         <v>168</v>
       </c>
       <c r="D371" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E371">
         <v>4</v>
@@ -29211,7 +29116,7 @@
         <v>237</v>
       </c>
       <c r="D372" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E372">
         <v>5</v>
@@ -29251,7 +29156,7 @@
         <v>237</v>
       </c>
       <c r="D373" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E373">
         <v>5</v>
@@ -29293,7 +29198,7 @@
         <v>237</v>
       </c>
       <c r="D374" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E374">
         <v>5</v>
@@ -29335,7 +29240,7 @@
         <v>237</v>
       </c>
       <c r="D375" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E375">
         <v>5</v>
@@ -29377,7 +29282,7 @@
         <v>237</v>
       </c>
       <c r="D376" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E376">
         <v>5</v>
@@ -29401,7 +29306,7 @@
         <v>374</v>
       </c>
       <c r="L376" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M376" t="s">
         <v>243</v>
@@ -29419,7 +29324,7 @@
         <v>237</v>
       </c>
       <c r="D377" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E377">
         <v>5</v>
@@ -29461,7 +29366,7 @@
         <v>237</v>
       </c>
       <c r="D378" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E378">
         <v>5</v>
@@ -29501,7 +29406,7 @@
         <v>237</v>
       </c>
       <c r="D379" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E379">
         <v>5</v>
@@ -29536,7 +29441,7 @@
         <v>237</v>
       </c>
       <c r="D380" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E380">
         <v>5</v>
@@ -29574,7 +29479,7 @@
         <v>237</v>
       </c>
       <c r="D381" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E381">
         <v>5</v>
@@ -29612,7 +29517,7 @@
         <v>237</v>
       </c>
       <c r="D382" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E382">
         <v>5</v>
@@ -29636,7 +29541,7 @@
         <v>312</v>
       </c>
       <c r="L382" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M382" t="s">
         <v>251</v>
@@ -29650,7 +29555,7 @@
         <v>237</v>
       </c>
       <c r="D383" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E383">
         <v>5</v>
@@ -29688,7 +29593,7 @@
         <v>237</v>
       </c>
       <c r="D384" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E384">
         <v>5</v>
@@ -29723,7 +29628,7 @@
         <v>237</v>
       </c>
       <c r="D385" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E385">
         <v>5</v>
@@ -29747,7 +29652,7 @@
         <v>312</v>
       </c>
       <c r="L385" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M385" t="s">
         <v>251</v>
@@ -29761,7 +29666,7 @@
         <v>237</v>
       </c>
       <c r="D386" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E386">
         <v>5</v>
@@ -29796,7 +29701,7 @@
         <v>254</v>
       </c>
       <c r="D387" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E387">
         <v>6</v>
@@ -29831,7 +29736,7 @@
         <v>254</v>
       </c>
       <c r="D388" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E388">
         <v>6</v>
@@ -29866,7 +29771,7 @@
         <v>254</v>
       </c>
       <c r="D389" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E389">
         <v>6</v>
@@ -29904,7 +29809,7 @@
         <v>254</v>
       </c>
       <c r="D390" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E390">
         <v>6</v>
@@ -29928,7 +29833,7 @@
         <v>312</v>
       </c>
       <c r="L390" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M390" t="s">
         <v>134</v>
@@ -29947,7 +29852,7 @@
         <v>254</v>
       </c>
       <c r="D391" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E391">
         <v>6</v>
@@ -29985,7 +29890,7 @@
         <v>254</v>
       </c>
       <c r="D392" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E392">
         <v>6</v>
@@ -30023,7 +29928,7 @@
         <v>254</v>
       </c>
       <c r="D393" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E393">
         <v>6</v>
@@ -30061,7 +29966,7 @@
         <v>254</v>
       </c>
       <c r="D394" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E394">
         <v>6</v>
@@ -30099,7 +30004,7 @@
         <v>254</v>
       </c>
       <c r="D395" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E395">
         <v>6</v>
@@ -30137,7 +30042,7 @@
         <v>254</v>
       </c>
       <c r="D396" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E396">
         <v>6</v>
@@ -30172,7 +30077,7 @@
         <v>254</v>
       </c>
       <c r="D397" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E397">
         <v>6</v>
@@ -30207,7 +30112,7 @@
         <v>254</v>
       </c>
       <c r="D398" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E398">
         <v>6</v>
@@ -30242,7 +30147,7 @@
         <v>272</v>
       </c>
       <c r="D399" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E399">
         <v>7</v>
@@ -30277,7 +30182,7 @@
         <v>272</v>
       </c>
       <c r="D400" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E400">
         <v>7</v>
@@ -30315,7 +30220,7 @@
         <v>272</v>
       </c>
       <c r="D401" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E401">
         <v>7</v>
@@ -30355,7 +30260,7 @@
         <v>272</v>
       </c>
       <c r="D402" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E402">
         <v>7</v>
@@ -30379,7 +30284,7 @@
         <v>312</v>
       </c>
       <c r="L402" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M402" s="4"/>
       <c r="N402" s="4"/>
@@ -30393,7 +30298,7 @@
         <v>272</v>
       </c>
       <c r="D403" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E403">
         <v>7</v>
@@ -30428,7 +30333,7 @@
         <v>272</v>
       </c>
       <c r="D404" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E404">
         <v>7</v>
@@ -30463,7 +30368,7 @@
         <v>272</v>
       </c>
       <c r="D405" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E405">
         <v>7</v>
@@ -30503,7 +30408,7 @@
         <v>272</v>
       </c>
       <c r="D406" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E406">
         <v>7</v>
@@ -30541,7 +30446,7 @@
         <v>272</v>
       </c>
       <c r="D407" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E407">
         <v>7</v>
@@ -30579,7 +30484,7 @@
         <v>272</v>
       </c>
       <c r="D408" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E408">
         <v>7</v>
@@ -30614,7 +30519,7 @@
         <v>272</v>
       </c>
       <c r="D409" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E409">
         <v>7</v>
@@ -30652,7 +30557,7 @@
         <v>272</v>
       </c>
       <c r="D410" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E410">
         <v>7</v>
@@ -30687,7 +30592,7 @@
         <v>272</v>
       </c>
       <c r="D411" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E411">
         <v>7</v>
@@ -30727,7 +30632,7 @@
         <v>272</v>
       </c>
       <c r="D412" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E412">
         <v>7</v>
@@ -30762,7 +30667,7 @@
         <v>272</v>
       </c>
       <c r="D413" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E413">
         <v>7</v>
@@ -30797,7 +30702,7 @@
         <v>272</v>
       </c>
       <c r="D414" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E414">
         <v>7</v>
@@ -30832,7 +30737,7 @@
         <v>272</v>
       </c>
       <c r="D415" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E415">
         <v>7</v>
@@ -30867,7 +30772,7 @@
         <v>272</v>
       </c>
       <c r="D416" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E416">
         <v>7</v>
@@ -30902,7 +30807,7 @@
         <v>272</v>
       </c>
       <c r="D417" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E417">
         <v>7</v>
@@ -30937,7 +30842,7 @@
         <v>272</v>
       </c>
       <c r="D418" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E418">
         <v>7</v>
@@ -30972,7 +30877,7 @@
         <v>285</v>
       </c>
       <c r="D419" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E419">
         <v>8</v>
@@ -31007,7 +30912,7 @@
         <v>285</v>
       </c>
       <c r="D420" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E420">
         <v>8</v>
@@ -31042,7 +30947,7 @@
         <v>285</v>
       </c>
       <c r="D421" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E421">
         <v>8</v>
@@ -31077,7 +30982,7 @@
         <v>285</v>
       </c>
       <c r="D422" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E422">
         <v>8</v>
@@ -31115,7 +31020,7 @@
         <v>285</v>
       </c>
       <c r="D423" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E423">
         <v>8</v>
@@ -31155,7 +31060,7 @@
         <v>285</v>
       </c>
       <c r="D424" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E424">
         <v>8</v>
@@ -31176,10 +31081,10 @@
         <v>1</v>
       </c>
       <c r="K424" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L424" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M424" t="s">
         <v>131</v>
@@ -31195,7 +31100,7 @@
         <v>285</v>
       </c>
       <c r="D425" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E425">
         <v>8</v>
@@ -31237,7 +31142,7 @@
         <v>285</v>
       </c>
       <c r="D426" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E426">
         <v>8</v>
@@ -31279,7 +31184,7 @@
         <v>285</v>
       </c>
       <c r="D427" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E427">
         <v>8</v>
@@ -31319,7 +31224,7 @@
         <v>285</v>
       </c>
       <c r="D428" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E428">
         <v>8</v>
@@ -31361,7 +31266,7 @@
         <v>285</v>
       </c>
       <c r="D429" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E429">
         <v>8</v>
@@ -31382,10 +31287,10 @@
         <v>1</v>
       </c>
       <c r="K429" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L429" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="O429" t="s">
         <v>286</v>
@@ -31396,7 +31301,7 @@
         <v>285</v>
       </c>
       <c r="D430" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E430">
         <v>8</v>
@@ -31434,7 +31339,7 @@
         <v>285</v>
       </c>
       <c r="D431" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E431">
         <v>8</v>
@@ -31471,7 +31376,7 @@
         <v>285</v>
       </c>
       <c r="D432" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E432">
         <v>8</v>
@@ -31505,7 +31410,7 @@
         <v>285</v>
       </c>
       <c r="D433" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E433">
         <v>8</v>
@@ -31540,7 +31445,7 @@
         <v>285</v>
       </c>
       <c r="D434" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E434">
         <v>8</v>
@@ -31575,7 +31480,7 @@
         <v>285</v>
       </c>
       <c r="D435" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E435">
         <v>8</v>
@@ -31613,7 +31518,7 @@
         <v>285</v>
       </c>
       <c r="D436" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E436">
         <v>8</v>
@@ -31648,7 +31553,7 @@
         <v>285</v>
       </c>
       <c r="D437" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E437">
         <v>8</v>
@@ -31688,7 +31593,7 @@
         <v>285</v>
       </c>
       <c r="D438" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E438">
         <v>8</v>
@@ -31709,10 +31614,10 @@
         <v>1</v>
       </c>
       <c r="K438" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L438" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="O438" t="s">
         <v>286</v>
@@ -31723,7 +31628,7 @@
         <v>285</v>
       </c>
       <c r="D439" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E439">
         <v>8</v>
@@ -31761,7 +31666,7 @@
         <v>285</v>
       </c>
       <c r="D440" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E440">
         <v>8</v>
@@ -31804,7 +31709,7 @@
         <v>285</v>
       </c>
       <c r="D441" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E441">
         <v>8</v>
@@ -31839,7 +31744,7 @@
         <v>285</v>
       </c>
       <c r="D442" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E442">
         <v>8</v>
@@ -31874,7 +31779,7 @@
         <v>285</v>
       </c>
       <c r="D443" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E443">
         <v>8</v>
@@ -31912,7 +31817,7 @@
         <v>285</v>
       </c>
       <c r="D444" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E444">
         <v>8</v>
@@ -31947,7 +31852,7 @@
         <v>285</v>
       </c>
       <c r="D445" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E445">
         <v>8</v>
@@ -31982,7 +31887,7 @@
         <v>285</v>
       </c>
       <c r="D446" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E446">
         <v>8</v>
@@ -32020,7 +31925,7 @@
         <v>285</v>
       </c>
       <c r="D447" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E447">
         <v>8</v>
@@ -32055,7 +31960,7 @@
         <v>285</v>
       </c>
       <c r="D448" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E448">
         <v>8</v>
@@ -32090,7 +31995,7 @@
         <v>285</v>
       </c>
       <c r="D449" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E449">
         <v>8</v>
@@ -32128,7 +32033,7 @@
         <v>285</v>
       </c>
       <c r="D450" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E450">
         <v>8</v>
@@ -32170,7 +32075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I6"/>
   <sheetViews>
@@ -32216,11 +32121,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
